--- a/data/trans_orig/IP22D2_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26CE9AFA-724F-42A9-9667-85207D62858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA6C9E0-DA85-481D-AC8E-218F4AA01850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D443642-C8B9-43A6-9FE3-3ADCA6279C7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3CD7C24-45C7-490F-9FF4-4CD0494B7E30}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>SÍ</t>
@@ -104,7 +104,7 @@
     <t>69,43%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -125,7 +125,7 @@
     <t>92,94%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -134,13 +134,13 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>18,04%</t>
+    <t>22,46%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>8,44%</t>
+    <t>8,8%</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -149,16 +149,16 @@
     <t>96,51%</t>
   </si>
   <si>
-    <t>81,96%</t>
+    <t>77,54%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -185,7 +185,7 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>19,46%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -194,13 +194,13 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>13,85%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>80,54%</t>
+    <t>82,06%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -209,43 +209,43 @@
     <t>97,26%</t>
   </si>
   <si>
-    <t>86,15%</t>
+    <t>87,02%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>5,72%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>94,25%</t>
+    <t>94,07%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>94,28%</t>
+    <t>92,18%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>96,22%</t>
+    <t>95,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F481C3-F21F-46D3-A639-53F41B90BFBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3554C3AA-DE58-48FD-98EC-1E9119EC38C2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D2_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA6C9E0-DA85-481D-AC8E-218F4AA01850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87B4AD4-3728-483C-B456-B05F9F0DC273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3CD7C24-45C7-490F-9FF4-4CD0494B7E30}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A9FA5A56-CAA3-40BE-B27D-48B090A0ECA1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
   <si>
     <t>Menores que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,56%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,10 +65,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,172 +77,151 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>6,81%</t>
   </si>
   <si>
+    <t>88,85%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
     <t>93,19%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -660,8 +639,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3554C3AA-DE58-48FD-98EC-1E9119EC38C2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538A42D8-4440-44B2-ADD6-34D48800E94F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -829,10 +808,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -844,10 +823,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -859,10 +838,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -880,10 +859,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -895,10 +874,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -910,10 +889,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N6" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -933,19 +912,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -960,22 +939,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -984,49 +963,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>8671</v>
+        <v>19777</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>17308</v>
+        <v>36999</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,10 +1014,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>8671</v>
+        <v>20432</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1050,10 +1029,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1065,10 +1044,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N9" s="7">
-        <v>17308</v>
+        <v>37654</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1082,7 +1061,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1100,37 +1079,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1139,49 +1118,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>16423</v>
+        <v>11141</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>27</v>
+      </c>
+      <c r="N11" s="7">
+        <v>22947</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="M11" s="7">
-        <v>42</v>
-      </c>
-      <c r="N11" s="7">
-        <v>32787</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,10 +1169,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1205,10 +1184,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>17017</v>
+        <v>11141</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1220,10 +1199,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N12" s="7">
-        <v>33381</v>
+        <v>22947</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1258,34 +1237,34 @@
         <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,16 +1273,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>9904</v>
+        <v>5099</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1312,31 +1291,31 @@
         <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>11551</v>
+        <v>13605</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>21455</v>
+        <v>18704</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,10 +1324,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>9904</v>
+        <v>5099</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1360,10 +1339,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>11551</v>
+        <v>14124</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1375,10 +1354,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15" s="7">
-        <v>21455</v>
+        <v>19223</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1392,7 +1371,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1401,46 +1380,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>504</v>
+        <v>1174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,46 +1428,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>12740</v>
+        <v>47511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I17" s="7">
-        <v>5172</v>
+        <v>52194</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="N17" s="7">
-        <v>17912</v>
+        <v>99705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1500,10 +1479,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7">
-        <v>13244</v>
+        <v>48166</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1515,10 +1494,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I18" s="7">
-        <v>5172</v>
+        <v>52713</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1530,10 +1509,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="N18" s="7">
-        <v>18416</v>
+        <v>100879</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1546,171 +1525,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>504</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>594</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1098</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>62</v>
-      </c>
-      <c r="D20" s="7">
-        <v>48350</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>62</v>
-      </c>
-      <c r="I20" s="7">
-        <v>43766</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>124</v>
-      </c>
-      <c r="N20" s="7">
-        <v>92116</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>63</v>
-      </c>
-      <c r="D21" s="7">
-        <v>48854</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>63</v>
-      </c>
-      <c r="I21" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>93214</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
